--- a/api/ExcelForData/testData.xlsx
+++ b/api/ExcelForData/testData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9930" activeTab="3"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="api" sheetId="2" r:id="rId2"/>
     <sheet name="phone" sheetId="3" r:id="rId3"/>
     <sheet name="gift" sheetId="4" r:id="rId4"/>
+    <sheet name="address" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
   <si>
     <t>测试服务器</t>
   </si>
@@ -385,55 +386,109 @@
     <t>14814672775</t>
   </si>
   <si>
-    <t>dealCount（兑换赠品数量）</t>
-  </si>
-  <si>
-    <t>dealId（赠品id）</t>
-  </si>
-  <si>
-    <t>selected(勾选状态)</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>994140</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>购买数量不能为负数</t>
+    <t>addressBuildingId（）</t>
+  </si>
+  <si>
+    <t>addressNaviId（）</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>city1</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>regionId</t>
+  </si>
+  <si>
+    <t>room1</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>ExpectValue</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>18039</t>
+  </si>
+  <si>
+    <t>自动化测试楼栋（勿删）</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>张大爷</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>购买数量不能为0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>兑换成功</t>
+    <t>22.408965</t>
+  </si>
+  <si>
+    <t>113.826119</t>
+  </si>
+  <si>
+    <t>903Aa</t>
+  </si>
+  <si>
+    <t>东角山</t>
+  </si>
+  <si>
+    <t>收货人不能为空</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>收货人不能全为空字符</t>
+  </si>
+  <si>
+    <t>*？&amp;%@</t>
+  </si>
+  <si>
+    <t>收货人只能是汉字字母数字组成</t>
+  </si>
+  <si>
+    <t>壹贰叁肆伍陆柒</t>
+  </si>
+  <si>
+    <t>收货人最大只支持6个汉字</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaa19</t>
+  </si>
+  <si>
+    <t>收货人最大只支持12个数字和字母</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>994136</t>
-  </si>
-  <si>
-    <t>没有足够的积分</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>994141</t>
-  </si>
-  <si>
-    <t>没有足够的库存</t>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -441,12 +496,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,50 +519,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -515,7 +526,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,6 +548,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -553,32 +593,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,13 +617,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -616,13 +625,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,187 +683,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,30 +868,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -885,11 +895,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,21 +917,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,6 +935,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -942,10 +976,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -954,137 +988,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1094,19 +1128,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1444,20 +1472,20 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1498,12 +1526,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="81.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1511,7 +1539,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1519,7 +1547,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1527,7 +1555,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1535,7 +1563,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1543,7 +1571,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1551,31 +1579,31 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1583,7 +1611,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1613,13 +1641,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1627,7 +1655,7 @@
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1638,7 +1666,7 @@
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1649,7 +1677,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1660,7 +1688,7 @@
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1671,7 +1699,7 @@
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1682,7 +1710,7 @@
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1693,7 +1721,7 @@
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1704,7 +1732,7 @@
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1715,7 +1743,7 @@
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1726,7 +1754,7 @@
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1737,7 +1765,7 @@
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1748,7 +1776,7 @@
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1759,7 +1787,7 @@
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1770,7 +1798,7 @@
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1781,7 +1809,7 @@
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1792,7 +1820,7 @@
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1803,7 +1831,7 @@
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1814,7 +1842,7 @@
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1825,7 +1853,7 @@
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1836,7 +1864,7 @@
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1847,7 +1875,7 @@
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1858,7 +1886,7 @@
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1869,7 +1897,7 @@
       <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1880,7 +1908,7 @@
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1891,7 +1919,7 @@
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1902,7 +1930,7 @@
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1913,7 +1941,7 @@
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1924,7 +1952,7 @@
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1935,7 +1963,7 @@
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1946,7 +1974,7 @@
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1957,7 +1985,7 @@
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1968,7 +1996,7 @@
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1979,7 +2007,7 @@
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1990,7 +2018,7 @@
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2001,7 +2029,7 @@
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2012,7 +2040,7 @@
       <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2023,7 +2051,7 @@
       <c r="A38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2034,7 +2062,7 @@
       <c r="A39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2045,7 +2073,7 @@
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2056,7 +2084,7 @@
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2067,7 +2095,7 @@
       <c r="A42" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2078,7 +2106,7 @@
       <c r="A43" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2089,7 +2117,7 @@
       <c r="A44" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2105,21 +2133,56 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="12.625"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="10.375" style="1"/>
+    <col min="8" max="8" width="11.5" style="1"/>
+    <col min="9" max="9" width="12.625" style="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="28" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
@@ -2130,77 +2193,440 @@
         <v>124</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>138</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>137</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>138</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/api/ExcelForData/testData.xlsx
+++ b/api/ExcelForData/testData.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\api_automation\api\ExcelForData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="1" r:id="rId1"/>
-    <sheet name="api" sheetId="2" r:id="rId2"/>
-    <sheet name="phone" sheetId="3" r:id="rId3"/>
-    <sheet name="gift" sheetId="4" r:id="rId4"/>
-    <sheet name="address" sheetId="5" r:id="rId5"/>
+    <sheet name="Note" sheetId="6" r:id="rId1"/>
+    <sheet name="config" sheetId="1" r:id="rId2"/>
+    <sheet name="api" sheetId="2" r:id="rId3"/>
+    <sheet name="phone" sheetId="3" r:id="rId4"/>
+    <sheet name="gift" sheetId="4" r:id="rId5"/>
+    <sheet name="address" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="202">
   <si>
     <t>测试服务器</t>
   </si>
@@ -455,53 +461,384 @@
     <t>东角山</t>
   </si>
   <si>
+    <t>收货人不能全为空字符</t>
+  </si>
+  <si>
+    <t>*？&amp;%@</t>
+  </si>
+  <si>
+    <t>收货人只能是汉字字母数字组成</t>
+  </si>
+  <si>
+    <t>壹贰叁肆伍陆柒</t>
+  </si>
+  <si>
+    <t>收货人最大只支持6个汉字</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaa19</t>
+  </si>
+  <si>
+    <t>收货人最大只支持12个数字和字母</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>dealCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>expectValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有足够的积分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>94136</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>94141</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有足够的库存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>94141</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买数量不能为负数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买数量不能为零</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13714672776</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1371467277</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码格式错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码格式错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13714672776</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>137$46&amp;27@6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13a14b72z7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,14!72?7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1371467 776</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BC</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23Aa</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>903Aa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>123 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678910</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>门牌号最大长度为1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>门牌号只能由数字和字母组成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>门牌号只能由数字和字母组成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>收货人不能为空</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t>收货人不能全为空字符</t>
-  </si>
-  <si>
-    <t>*？&amp;%@</t>
-  </si>
-  <si>
-    <t>收货人只能是汉字字母数字组成</t>
-  </si>
-  <si>
-    <t>壹贰叁肆伍陆柒</t>
-  </si>
-  <si>
-    <t>收货人最大只支持6个汉字</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaa19</t>
-  </si>
-  <si>
-    <t>收货人最大只支持12个数字和字母</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择楼栋单元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,155 +851,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,198 +880,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -870,255 +905,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1137,62 +930,27 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1450,19 +1208,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1472,7 +1245,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1507,30 +1280,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://release.thy360.com" tooltip="http://release.thy360.com"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="http://release.thy360.com"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="81.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1546,7 +1318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1554,7 +1326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1562,7 +1334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1578,7 +1350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1586,7 +1358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1594,7 +1366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1602,7 +1374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -1610,7 +1382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -1619,28 +1391,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1651,7 +1422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1662,7 +1433,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1673,7 +1444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1684,7 +1455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1695,7 +1466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1706,7 +1477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1717,7 +1488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1728,7 +1499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1739,7 +1510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1750,7 +1521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1761,7 +1532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -1772,7 +1543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1783,7 +1554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -1794,7 +1565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -1805,7 +1576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
@@ -1816,7 +1587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -1827,7 +1598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
@@ -1838,7 +1609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -1849,7 +1620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -1860,7 +1631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -1871,7 +1642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -1882,7 +1653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -1893,7 +1664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
@@ -1904,7 +1675,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -1915,7 +1686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -1926,7 +1697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -1937,7 +1708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
@@ -1948,7 +1719,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -1959,7 +1730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
@@ -1970,7 +1741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -1981,7 +1752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
@@ -1992,7 +1763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -2003,7 +1774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
@@ -2014,7 +1785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
@@ -2025,7 +1796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
@@ -2036,7 +1807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
@@ -2047,7 +1818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>108</v>
       </c>
@@ -2058,7 +1829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>110</v>
       </c>
@@ -2069,7 +1840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -2080,7 +1851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
@@ -2091,7 +1862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>116</v>
       </c>
@@ -2102,7 +1873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>118</v>
       </c>
@@ -2113,7 +1884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>120</v>
       </c>
@@ -2125,21 +1896,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -2150,22 +1920,106 @@
     <col min="9" max="9" width="12.625"/>
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M11"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
@@ -2177,12 +2031,13 @@
     <col min="8" max="8" width="11.5" style="1"/>
     <col min="9" max="9" width="12.625" style="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="1"/>
+    <col min="11" max="11" width="14.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="13" width="28" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
@@ -2223,7 +2078,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -2236,7 +2091,7 @@
       <c r="D2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>139</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2264,7 +2119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>135</v>
       </c>
@@ -2277,7 +2132,7 @@
       <c r="D3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="1" t="s">
         <v>140</v>
       </c>
@@ -2299,11 +2154,11 @@
       <c r="L3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:13">
+      <c r="M3" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
@@ -2316,8 +2171,8 @@
       <c r="D4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>146</v>
+      <c r="E4" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>140</v>
@@ -2341,10 +2196,10 @@
         <v>144</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
@@ -2357,8 +2212,8 @@
       <c r="D5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>148</v>
+      <c r="E5" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>140</v>
@@ -2382,10 +2237,10 @@
         <v>144</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
@@ -2398,8 +2253,8 @@
       <c r="D6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>150</v>
+      <c r="E6" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>140</v>
@@ -2423,10 +2278,10 @@
         <v>144</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:13">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>135</v>
       </c>
@@ -2439,8 +2294,8 @@
       <c r="D7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>152</v>
+      <c r="E7" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>140</v>
@@ -2464,10 +2319,10 @@
         <v>144</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
@@ -2483,8 +2338,8 @@
       <c r="E8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>154</v>
+      <c r="F8" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>141</v>
@@ -2508,7 +2363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>135</v>
       </c>
@@ -2524,8 +2379,8 @@
       <c r="E9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>155</v>
+      <c r="F9" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>141</v>
@@ -2549,7 +2404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>135</v>
       </c>
@@ -2565,7 +2420,7 @@
       <c r="E10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="1" t="s">
         <v>141</v>
       </c>
@@ -2588,7 +2443,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
@@ -2604,8 +2459,8 @@
       <c r="E11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>156</v>
+      <c r="F11" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>141</v>
@@ -2629,8 +2484,784 @@
         <v>37</v>
       </c>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I14" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/api/ExcelForData/testData.xlsx
+++ b/api/ExcelForData/testData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="6" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="phone" sheetId="3" r:id="rId4"/>
     <sheet name="gift" sheetId="4" r:id="rId5"/>
     <sheet name="address" sheetId="5" r:id="rId6"/>
+    <sheet name="quickbuy" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="212">
   <si>
     <t>测试服务器</t>
   </si>
@@ -493,13 +494,6 @@
   <si>
     <t>dealCount</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dealId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>selected</t>
   </si>
   <si>
     <t>expectValue</t>
@@ -831,6 +825,67 @@
   </si>
   <si>
     <t>请选择楼栋单元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13714672774</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13714672776</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/quick/buy/false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜谱一键购买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.0.21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"dealCount":1,"dealId":951142},{"dealCount":1,"dealId":947124},{"dealCount":1,"dealId":947128}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonArrayParamString</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1229,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1279,21 +1334,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="http://release.thy360.com"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1388,6 +1462,14 @@
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +1988,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1922,87 +2004,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>158</v>
+      <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2015,9 +2097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2155,7 +2235,7 @@
         <v>144</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -2172,7 +2252,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>140</v>
@@ -2510,7 +2590,7 @@
         <v>142</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>6</v>
@@ -2522,7 +2602,7 @@
         <v>144</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -2551,7 +2631,7 @@
         <v>142</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>6</v>
@@ -2563,7 +2643,7 @@
         <v>144</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -2592,7 +2672,7 @@
         <v>142</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>6</v>
@@ -2604,7 +2684,7 @@
         <v>144</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -2633,7 +2713,7 @@
         <v>142</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>6</v>
@@ -2645,7 +2725,7 @@
         <v>144</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -2674,7 +2754,7 @@
         <v>142</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>6</v>
@@ -2686,7 +2766,7 @@
         <v>144</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -2715,7 +2795,7 @@
         <v>142</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>6</v>
@@ -2727,7 +2807,7 @@
         <v>144</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -2756,7 +2836,7 @@
         <v>142</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>6</v>
@@ -2768,7 +2848,7 @@
         <v>144</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -2807,7 +2887,7 @@
         <v>144</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
@@ -2834,19 +2914,19 @@
         <v>142</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>144</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
@@ -2875,19 +2955,19 @@
         <v>142</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>144</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
@@ -2916,19 +2996,19 @@
         <v>142</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>144</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
@@ -2957,7 +3037,7 @@
         <v>142</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>6</v>
@@ -2969,7 +3049,7 @@
         <v>144</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
@@ -2998,19 +3078,19 @@
         <v>142</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>144</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
@@ -3039,19 +3119,19 @@
         <v>142</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>144</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
@@ -3080,7 +3160,7 @@
         <v>142</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>6</v>
@@ -3090,7 +3170,7 @@
         <v>144</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
@@ -3119,19 +3199,19 @@
         <v>142</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>144</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
@@ -3160,19 +3240,19 @@
         <v>142</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>144</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
@@ -3201,19 +3281,19 @@
         <v>142</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>144</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
@@ -3242,19 +3322,19 @@
         <v>142</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>144</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3264,4 +3344,45 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="108.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/api/ExcelForData/testData.xlsx
+++ b/api/ExcelForData/testData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\api_automation\api\ExcelForData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="6"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="6" r:id="rId1"/>
@@ -17,15 +12,16 @@
     <sheet name="api" sheetId="2" r:id="rId3"/>
     <sheet name="phone" sheetId="3" r:id="rId4"/>
     <sheet name="gift" sheetId="4" r:id="rId5"/>
-    <sheet name="address" sheetId="5" r:id="rId6"/>
-    <sheet name="quickbuy" sheetId="7" r:id="rId7"/>
+    <sheet name="quickbuy" sheetId="7" r:id="rId6"/>
+    <sheet name="address" sheetId="5" r:id="rId7"/>
+    <sheet name="test" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
   <si>
     <t>测试服务器</t>
   </si>
@@ -57,6 +53,29 @@
     <t>13714672774</t>
   </si>
   <si>
+    <t>http://172.16.0.21</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
     <t>登录接口</t>
   </si>
   <si>
@@ -123,6 +142,12 @@
     <t>/ja/user/v3/od/deal/buy</t>
   </si>
   <si>
+    <t>菜谱一键购买</t>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/quick/buy/false</t>
+  </si>
+  <si>
     <t>收货人姓名</t>
   </si>
   <si>
@@ -393,122 +418,28 @@
     <t>14814672775</t>
   </si>
   <si>
-    <t>addressBuildingId（）</t>
-  </si>
-  <si>
-    <t>addressNaviId（）</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>city1</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>regionId</t>
-  </si>
-  <si>
-    <t>room1</t>
-  </si>
-  <si>
-    <t>village</t>
-  </si>
-  <si>
-    <t>ExpectValue</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>18039</t>
-  </si>
-  <si>
-    <t>自动化测试楼栋（勿删）</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>张大爷</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>22.408965</t>
-  </si>
-  <si>
-    <t>113.826119</t>
-  </si>
-  <si>
-    <t>903Aa</t>
-  </si>
-  <si>
-    <t>东角山</t>
-  </si>
-  <si>
-    <t>收货人不能全为空字符</t>
-  </si>
-  <si>
-    <t>*？&amp;%@</t>
-  </si>
-  <si>
-    <t>收货人只能是汉字字母数字组成</t>
-  </si>
-  <si>
-    <t>壹贰叁肆伍陆柒</t>
-  </si>
-  <si>
-    <t>收货人最大只支持6个汉字</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaa19</t>
-  </si>
-  <si>
-    <t>收货人最大只支持12个数字和字母</t>
+    <t>dealCount</t>
+  </si>
+  <si>
+    <t>dealId</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>expectValue</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>dealCount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有足够的积分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>9</t>
     </r>
     <r>
@@ -516,20 +447,25 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>94136</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有足够的积分</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -537,16 +473,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>9</t>
     </r>
     <r>
@@ -554,53 +493,28 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>94141</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>没有足够的库存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>购买数量不能为零</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>94141</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买数量不能为负数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>-</t>
     </r>
     <r>
@@ -608,36 +522,130 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买数量不能为零</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买数量不能为负数</t>
+  </si>
+  <si>
+    <t>jsonArrayParamString</t>
+  </si>
+  <si>
+    <t>[{"dealCount":1,"dealId":951142},{"dealCount":1,"dealId":947124},{"dealCount":1,"dealId":947128}]</t>
+  </si>
+  <si>
+    <t>加入购物车成功</t>
+  </si>
+  <si>
+    <t>addressBuildingId（）</t>
+  </si>
+  <si>
+    <t>addressNaviId（）</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>city1</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>regionId</t>
+  </si>
+  <si>
+    <t>room1</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>ExpectValue</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>18039</t>
+  </si>
+  <si>
+    <t>自动化测试楼栋（勿删）</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>张大爷</t>
+  </si>
+  <si>
+    <t>22.408965</t>
+  </si>
+  <si>
+    <t>113.826119</t>
+  </si>
+  <si>
+    <t>903Aa</t>
+  </si>
+  <si>
+    <t>东角山</t>
+  </si>
+  <si>
+    <t>收货人不能为空</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人不能全为空字符</t>
+  </si>
+  <si>
+    <t>*？&amp;%@</t>
+  </si>
+  <si>
+    <t>收货人只能是汉字字母数字组成</t>
+  </si>
+  <si>
+    <t>壹贰叁肆伍陆柒</t>
+  </si>
+  <si>
+    <t>收货人最大只支持6个汉字</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaa19</t>
+  </si>
+  <si>
+    <t>收货人最大只支持12个数字和字母</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>13714672776</t>
     </r>
     <r>
@@ -645,44 +653,34 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码格式错误</t>
   </si>
   <si>
     <t>1371467277</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码格式错误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码格式错误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13714672776</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>137$46&amp;27@6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>13a14b72z7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>13,14!72?7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -690,24 +688,28 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1371467 776</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择楼栋单元</t>
   </si>
   <si>
     <t>abc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>A</t>
     </r>
     <r>
@@ -715,16 +717,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>BC</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -732,16 +737,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>23</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -749,20 +757,22 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>23Aa</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>903Aa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>门牌号只能由数字和字母组成</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -770,28 +780,28 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>123 4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>abc d</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>12345678910</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>门牌号最大长度为1</t>
     </r>
     <r>
@@ -799,101 +809,29 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>门牌号只能由数字和字母组成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>门牌号只能由数字和字母组成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货人不能为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择楼栋单元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13714672774</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13714672776</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ja/user/v4/discovery/cae/quick/buy/false</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜谱一键购买</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://172.16.0.21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dealId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>selected</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入购物车成功</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"dealCount":1,"dealId":951142},{"dealCount":1,"dealId":947124},{"dealCount":1,"dealId":947128}]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsonArrayParamString</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>21</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonParam</t>
+  </si>
+  <si>
+    <t>{"contact":"张大爷","phone":13714672776,"gender":0,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1111","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":256}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,7 +844,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -914,19 +851,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -935,13 +1008,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,8 +1018,200 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -960,9 +1219,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,7 +1477,16 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -985,27 +1495,62 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1263,34 +1808,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1300,24 +1846,24 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1334,664 +1880,667 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>211</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="http://release.thy360.com"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://release.thy360.com" tooltip="http://release.thy360.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://172.16.0.21"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="81.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>10</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>203</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -2003,103 +2552,148 @@
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>173</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="108.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
@@ -2117,71 +2711,71 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -2190,37 +2784,37 @@
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
@@ -2229,39 +2823,39 @@
         <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>7</v>
@@ -2270,39 +2864,39 @@
         <v>6</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
@@ -2311,39 +2905,39 @@
         <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
@@ -2352,39 +2946,39 @@
         <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
@@ -2393,39 +2987,39 @@
         <v>6</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>7</v>
@@ -2434,39 +3028,39 @@
         <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>7</v>
@@ -2475,37 +3069,37 @@
         <v>6</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
@@ -2514,39 +3108,39 @@
         <v>6</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>7</v>
@@ -2555,808 +3149,809 @@
         <v>6</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>176</v>
+        <v>163</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>180</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>181</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>182</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M16" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>183</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M17" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>184</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M18" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="8"/>
+        <v>163</v>
+      </c>
+      <c r="I19" s="5"/>
       <c r="J19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M19" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>189</v>
+      <c r="K20" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>185</v>
+      <c r="K21" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>186</v>
+      <c r="K22" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>143</v>
+      <c r="K23" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>187</v>
+      <c r="K24" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>188</v>
+      <c r="K25" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="8" t="s">
-        <v>191</v>
+      <c r="K28" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>192</v>
+      <c r="K29" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="8" t="s">
-        <v>193</v>
+      <c r="K30" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>194</v>
+        <v>165</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I14" r:id="rId1"/>
+    <hyperlink ref="I14" r:id="rId1" display="137$46&amp;27@6"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="108.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="182.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
@@ -3365,24 +3960,24 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>208</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="37" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/api/ExcelForData/testData.xlsx
+++ b/api/ExcelForData/testData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\api_automation\api\ExcelForData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="6" r:id="rId1"/>
@@ -15,13 +20,15 @@
     <sheet name="quickbuy" sheetId="7" r:id="rId6"/>
     <sheet name="address" sheetId="5" r:id="rId7"/>
     <sheet name="test" sheetId="8" r:id="rId8"/>
+    <sheet name="testgift" sheetId="9" r:id="rId9"/>
+    <sheet name="buy" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="205">
   <si>
     <t>测试服务器</t>
   </si>
@@ -818,20 +825,43 @@
     <t>jsonParam</t>
   </si>
   <si>
-    <t>{"contact":"张大爷","phone":13714672776,"gender":0,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1111","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":256}</t>
+    <t>成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"dealId":994140,"selected":true,"dealCount":1}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"dealId":991824,"odLabelId":"-1","limitFlag":false,"selected":false,"specId":924116,"dealCount":1}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonParam(将自动化商品1添加到购物车)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许购买</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"contact":"99","phone":13714672776,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"9999","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":256}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectValue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,148 +888,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,7 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,198 +918,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1219,251 +931,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1496,61 +966,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1808,35 +1234,75 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="100.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1846,7 +1312,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1880,7 +1346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1898,32 +1364,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://release.thy360.com" tooltip="http://release.thy360.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://172.16.0.21"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="http://release.thy360.com"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="81.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1931,7 +1396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
@@ -1939,7 +1404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -1947,7 +1412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1955,7 +1420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -1963,7 +1428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
@@ -1971,7 +1436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
@@ -1979,7 +1444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
@@ -1987,7 +1452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1995,7 +1460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
@@ -2003,7 +1468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>32</v>
       </c>
@@ -2011,7 +1476,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -2020,28 +1485,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
@@ -2052,7 +1516,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -2063,7 +1527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -2074,7 +1538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -2085,7 +1549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -2096,7 +1560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -2107,7 +1571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -2118,7 +1582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -2129,7 +1593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -2140,7 +1604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -2151,7 +1615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -2162,7 +1626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -2173,7 +1637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -2184,7 +1648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -2195,7 +1659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -2206,7 +1670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
@@ -2217,7 +1681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -2228,7 +1692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -2239,7 +1703,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -2250,7 +1714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>76</v>
       </c>
@@ -2261,7 +1725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
@@ -2272,7 +1736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -2283,7 +1747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2294,7 +1758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>84</v>
       </c>
@@ -2305,7 +1769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>86</v>
       </c>
@@ -2316,7 +1780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
@@ -2327,7 +1791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -2338,7 +1802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -2349,7 +1813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
@@ -2360,7 +1824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
@@ -2371,7 +1835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
@@ -2382,7 +1846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>100</v>
       </c>
@@ -2393,7 +1857,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>102</v>
       </c>
@@ -2404,7 +1868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
@@ -2415,7 +1879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>106</v>
       </c>
@@ -2426,7 +1890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -2437,7 +1901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -2448,7 +1912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>112</v>
       </c>
@@ -2459,7 +1923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>114</v>
       </c>
@@ -2470,7 +1934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>116</v>
       </c>
@@ -2481,7 +1945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>118</v>
       </c>
@@ -2492,7 +1956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>120</v>
       </c>
@@ -2503,7 +1967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>122</v>
       </c>
@@ -2514,7 +1978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -2526,21 +1990,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -2552,7 +2015,7 @@
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>126</v>
       </c>
@@ -2566,7 +2029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>130</v>
       </c>
@@ -2580,7 +2043,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>134</v>
       </c>
@@ -2594,7 +2057,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
@@ -2608,7 +2071,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>139</v>
       </c>
@@ -2622,7 +2085,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>130</v>
       </c>
@@ -2637,21 +2100,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="108.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
@@ -2662,7 +2124,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>141</v>
       </c>
@@ -2670,7 +2132,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>142</v>
       </c>
@@ -2679,21 +2141,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
@@ -2711,7 +2172,7 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>144</v>
       </c>
@@ -2752,7 +2213,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
@@ -2793,7 +2254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>157</v>
       </c>
@@ -2832,7 +2293,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>157</v>
       </c>
@@ -2873,7 +2334,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>157</v>
       </c>
@@ -2914,7 +2375,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>157</v>
       </c>
@@ -2955,7 +2416,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>157</v>
       </c>
@@ -2996,7 +2457,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>157</v>
       </c>
@@ -3037,7 +2498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>157</v>
       </c>
@@ -3078,7 +2539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>157</v>
       </c>
@@ -3117,7 +2578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>157</v>
       </c>
@@ -3158,7 +2619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>157</v>
       </c>
@@ -3199,7 +2660,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>157</v>
       </c>
@@ -3240,7 +2701,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>157</v>
       </c>
@@ -3281,7 +2742,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>157</v>
       </c>
@@ -3322,7 +2783,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>157</v>
       </c>
@@ -3363,7 +2824,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -3404,7 +2865,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>157</v>
       </c>
@@ -3445,7 +2906,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>157</v>
       </c>
@@ -3484,7 +2945,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>157</v>
       </c>
@@ -3523,7 +2984,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>157</v>
       </c>
@@ -3564,7 +3025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>157</v>
       </c>
@@ -3605,7 +3066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>157</v>
       </c>
@@ -3646,7 +3107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>157</v>
       </c>
@@ -3687,7 +3148,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>157</v>
       </c>
@@ -3728,7 +3189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>157</v>
       </c>
@@ -3767,7 +3228,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>157</v>
       </c>
@@ -3808,7 +3269,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>157</v>
       </c>
@@ -3849,7 +3310,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>157</v>
       </c>
@@ -3890,7 +3351,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>157</v>
       </c>
@@ -3932,26 +3393,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I14" r:id="rId1" display="137$46&amp;27@6"/>
+    <hyperlink ref="I14" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="182.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="215.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
@@ -3960,24 +3420,65 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="48.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="37" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/api/ExcelForData/testData.xlsx
+++ b/api/ExcelForData/testData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\api_automation\api\ExcelForData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="6" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="298">
   <si>
     <t>测试服务器</t>
   </si>
@@ -63,6 +68,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -72,6 +78,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>21</t>
@@ -163,6 +170,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷134</t>
@@ -171,6 +180,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -179,6 +190,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13414672775</t>
@@ -187,6 +200,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":256}</t>
@@ -203,6 +218,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷135</t>
@@ -211,6 +228,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -219,6 +238,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13514672775</t>
@@ -227,6 +248,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":257}</t>
@@ -240,6 +263,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷136</t>
@@ -248,6 +273,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -256,6 +283,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13614672775</t>
@@ -264,6 +293,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":258}</t>
@@ -277,6 +308,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷137</t>
@@ -285,6 +318,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -293,6 +328,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13714672775</t>
@@ -301,6 +338,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":259}</t>
@@ -314,6 +353,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷138</t>
@@ -322,6 +363,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -330,6 +373,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13814672775</t>
@@ -338,6 +383,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":260}</t>
@@ -351,6 +398,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷139</t>
@@ -359,6 +408,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -367,6 +418,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13914672775</t>
@@ -375,6 +428,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":261}</t>
@@ -388,6 +443,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷150</t>
@@ -396,6 +453,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -404,6 +463,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15014672775</t>
@@ -412,6 +473,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":262}</t>
@@ -425,6 +488,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷151</t>
@@ -433,6 +498,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -441,6 +508,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15114672775</t>
@@ -449,6 +518,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":263}</t>
@@ -462,6 +533,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷152</t>
@@ -470,6 +543,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -478,6 +553,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15214672775</t>
@@ -486,6 +563,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":264}</t>
@@ -499,6 +578,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷157</t>
@@ -507,6 +588,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -515,6 +598,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15714672775</t>
@@ -523,6 +608,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":265}</t>
@@ -536,6 +623,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷158</t>
@@ -544,6 +633,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -552,6 +643,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15814672775</t>
@@ -560,6 +653,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":266}</t>
@@ -573,6 +668,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷159</t>
@@ -581,6 +678,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -589,6 +688,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15914672775</t>
@@ -597,6 +698,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":267}</t>
@@ -610,6 +713,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷182</t>
@@ -618,6 +723,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -626,6 +733,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18214672775</t>
@@ -634,6 +743,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":268}</t>
@@ -647,6 +758,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷183</t>
@@ -655,6 +768,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -663,6 +778,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18314672775</t>
@@ -671,6 +788,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":269}</t>
@@ -684,6 +803,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷184</t>
@@ -692,6 +813,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -700,6 +823,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18414672775</t>
@@ -708,6 +833,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":270}</t>
@@ -721,6 +848,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷187</t>
@@ -729,6 +858,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -737,6 +868,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18714672775</t>
@@ -745,6 +878,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":271}</t>
@@ -758,6 +893,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷188</t>
@@ -766,6 +903,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -774,6 +913,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18814672775</t>
@@ -782,6 +923,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":272}</t>
@@ -795,6 +938,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷147</t>
@@ -803,6 +948,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -811,6 +958,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>14714672775</t>
@@ -819,6 +968,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":273}</t>
@@ -832,6 +983,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷178</t>
@@ -840,6 +993,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -848,6 +1003,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>17814672775</t>
@@ -856,6 +1013,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":274}</t>
@@ -869,6 +1028,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷130</t>
@@ -877,6 +1038,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -885,6 +1048,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13014672775</t>
@@ -893,6 +1058,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":275}</t>
@@ -906,6 +1073,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷131</t>
@@ -914,6 +1083,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -922,6 +1093,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13114672775</t>
@@ -930,6 +1103,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":276}</t>
@@ -943,6 +1118,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷132</t>
@@ -951,6 +1128,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -959,6 +1138,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13214672775</t>
@@ -967,6 +1148,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":277}</t>
@@ -980,6 +1163,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷155</t>
@@ -988,6 +1173,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -996,6 +1183,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15514672775</t>
@@ -1004,6 +1193,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":278}</t>
@@ -1017,6 +1208,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷156</t>
@@ -1025,6 +1218,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1033,6 +1228,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15614672775</t>
@@ -1041,6 +1238,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":279}</t>
@@ -1054,6 +1253,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷185</t>
@@ -1062,6 +1263,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1070,6 +1273,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18514672775</t>
@@ -1078,6 +1283,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":280}</t>
@@ -1091,6 +1298,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷186</t>
@@ -1099,6 +1308,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1107,6 +1318,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18614672775</t>
@@ -1115,6 +1328,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":281}</t>
@@ -1128,6 +1343,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷145</t>
@@ -1136,6 +1353,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1144,6 +1363,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>14514672775</t>
@@ -1152,6 +1373,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":282}</t>
@@ -1165,6 +1388,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷175</t>
@@ -1173,6 +1398,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1181,6 +1408,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>17514672775</t>
@@ -1189,6 +1418,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":283}</t>
@@ -1202,6 +1433,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷176</t>
@@ -1210,6 +1443,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1218,6 +1453,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>17614672775</t>
@@ -1226,6 +1463,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":284}</t>
@@ -1239,6 +1478,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷133</t>
@@ -1247,6 +1488,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1255,6 +1498,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13314672775</t>
@@ -1263,6 +1508,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":285}</t>
@@ -1276,6 +1523,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷153</t>
@@ -1284,6 +1533,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1292,6 +1543,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15314672775</t>
@@ -1300,6 +1553,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":286}</t>
@@ -1313,6 +1568,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷180</t>
@@ -1321,6 +1578,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1329,6 +1588,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18014672775</t>
@@ -1337,6 +1598,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":287}</t>
@@ -1350,6 +1613,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷181</t>
@@ -1358,6 +1623,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1366,6 +1633,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18114672775</t>
@@ -1374,6 +1643,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":288}</t>
@@ -1387,6 +1658,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷189</t>
@@ -1395,6 +1668,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1403,6 +1678,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18914672775</t>
@@ -1411,6 +1688,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":289}</t>
@@ -1424,6 +1703,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷177</t>
@@ -1432,6 +1713,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1440,6 +1723,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>17714672775</t>
@@ -1448,6 +1733,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":290}</t>
@@ -1461,6 +1748,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷173</t>
@@ -1469,6 +1758,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1477,6 +1768,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>17314672775</t>
@@ -1485,6 +1778,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":291}</t>
@@ -1498,6 +1793,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷170</t>
@@ -1506,6 +1803,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1514,6 +1813,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>17014672775</t>
@@ -1522,6 +1823,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":292}</t>
@@ -1535,6 +1838,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷171</t>
@@ -1543,6 +1848,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1551,6 +1858,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>17114672775</t>
@@ -1559,6 +1868,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":293}</t>
@@ -1572,6 +1883,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷198</t>
@@ -1580,6 +1893,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1588,6 +1903,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>19814672775</t>
@@ -1596,6 +1913,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":294}</t>
@@ -1609,6 +1928,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷199</t>
@@ -1617,6 +1938,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1625,6 +1948,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>19914672775</t>
@@ -1633,6 +1958,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":295}</t>
@@ -1646,6 +1973,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷166</t>
@@ -1654,6 +1983,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1662,6 +1993,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>16614672775</t>
@@ -1670,6 +2003,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":296}</t>
@@ -1683,6 +2018,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷146</t>
@@ -1691,6 +2028,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1699,6 +2038,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>14614672775</t>
@@ -1707,6 +2048,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":297}</t>
@@ -1720,6 +2063,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷148</t>
@@ -1728,6 +2073,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1736,6 +2083,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>14814672775</t>
@@ -1744,6 +2093,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":298}</t>
@@ -1757,6 +2108,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>""</t>
@@ -1765,6 +2118,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"phone":14814672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":298}</t>
@@ -1781,6 +2136,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"   "</t>
@@ -1789,6 +2146,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"phone":14814672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":299}</t>
@@ -1805,6 +2164,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*？&amp;%@</t>
@@ -1813,6 +2174,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":256}</t>
@@ -1829,6 +2192,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>壹贰叁肆伍陆柒</t>
@@ -1837,6 +2202,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":257}</t>
@@ -1853,6 +2220,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>aaaaaaaaaa19</t>
@@ -1861,6 +2230,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":258}</t>
@@ -1877,6 +2248,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1885,6 +2258,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":259}</t>
@@ -1898,6 +2273,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1906,6 +2283,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":260}</t>
@@ -1922,6 +2301,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:,</t>
@@ -1930,6 +2311,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":262}</t>
@@ -1943,6 +2326,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:   ,</t>
@@ -1951,6 +2336,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":263}</t>
@@ -1964,6 +2351,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>134146727755</t>
@@ -1972,6 +2361,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":264}</t>
@@ -1988,6 +2379,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1341467277</t>
@@ -1996,6 +2389,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":265}</t>
@@ -2009,6 +2404,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>137$46&amp;27@6</t>
@@ -2017,6 +2414,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":266}</t>
@@ -2030,6 +2429,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13a14b72z7</t>
@@ -2038,6 +2439,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":267}</t>
@@ -2051,6 +2454,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13,14!72?7</t>
@@ -2059,6 +2464,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":268}</t>
@@ -2072,6 +2479,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1371467 776</t>
@@ -2080,6 +2489,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":269}</t>
@@ -2093,6 +2504,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:,</t>
@@ -2101,6 +2514,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":270}</t>
@@ -2114,6 +2529,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:   ,</t>
@@ -2122,6 +2539,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":271}</t>
@@ -2135,6 +2554,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>""</t>
@@ -2143,6 +2564,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"addressBuildingId":272}</t>
@@ -2159,6 +2582,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"   "</t>
@@ -2167,6 +2592,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"addressBuildingId":273}</t>
@@ -2180,6 +2607,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>abc</t>
@@ -2188,6 +2617,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":274}</t>
@@ -2201,6 +2632,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ABC</t>
@@ -2209,6 +2642,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":275}</t>
@@ -2222,6 +2657,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>aaAA</t>
@@ -2230,6 +2667,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":276}</t>
@@ -2243,6 +2682,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>903</t>
@@ -2251,6 +2692,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":277}</t>
@@ -2264,6 +2707,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>903A</t>
@@ -2272,6 +2717,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":278}</t>
@@ -2285,6 +2732,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>903a</t>
@@ -2293,6 +2742,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":279}</t>
@@ -2306,6 +2757,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>""</t>
@@ -2314,6 +2767,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":280}</t>
@@ -2330,6 +2785,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"   "</t>
@@ -2338,6 +2795,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":281}</t>
@@ -2351,6 +2810,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>12 34</t>
@@ -2359,6 +2820,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":282}</t>
@@ -2372,6 +2835,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>AB CD</t>
@@ -2380,6 +2845,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":283}</t>
@@ -2393,6 +2860,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>12.34</t>
@@ -2401,6 +2870,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":284}</t>
@@ -2414,6 +2885,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ab.cd</t>
@@ -2422,6 +2895,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":285}</t>
@@ -2435,6 +2910,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>AB@CD</t>
@@ -2443,6 +2920,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":286}</t>
@@ -2456,6 +2935,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>12+34</t>
@@ -2464,6 +2945,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":287}</t>
@@ -2477,6 +2960,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>12*34</t>
@@ -2485,6 +2970,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":288}</t>
@@ -2498,6 +2985,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>12345678910</t>
@@ -2506,6 +2995,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":289}</t>
@@ -2525,6 +3016,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>994136</t>
@@ -2533,6 +3026,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"selected":true,"dealCount":1}</t>
@@ -2549,6 +3044,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>30</t>
@@ -2557,6 +3054,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2573,6 +3072,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -2581,6 +3082,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2597,6 +3100,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-1</t>
@@ -2605,6 +3110,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2624,6 +3131,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -2632,6 +3141,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2648,6 +3159,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -2656,6 +3169,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2672,6 +3187,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-1</t>
@@ -2680,15 +3197,14 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
   </si>
   <si>
-    <t>商品数量不能为负数</t>
-  </si>
-  <si>
     <r>
       <t>{"dealId":991824,"odLabelId":"-1","limitFlag":false,"selected":false,"specId":924116,"dealCount":</t>
     </r>
@@ -2696,6 +3212,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1000</t>
@@ -2704,27 +3222,17 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
   </si>
   <si>
-    <t>商品数量库存不足</t>
-  </si>
-  <si>
     <t>jsonArrayParam</t>
   </si>
   <si>
-    <t>[{"dealCount":1,"dealId":951142},{"dealCount":1,"dealId":947124},{"dealCount":1,"dealId":947128}]</t>
-  </si>
-  <si>
-    <t>加入购物车成功</t>
-  </si>
-  <si>
-    <t>[{"dealCount":0,"dealId":951142},{"dealCount":1,"dealId":947124},{"dealCount":1,"dealId":947128}]</t>
-  </si>
-  <si>
     <t>dealCount</t>
   </si>
   <si>
@@ -2751,6 +3259,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9</t>
@@ -2760,6 +3269,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>94141</t>
@@ -2774,6 +3284,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -2783,6 +3294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -3180,19 +3692,138 @@
   </si>
   <si>
     <t>14814672775</t>
+  </si>
+  <si>
+    <t>购买数量不能为负数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有足够的库存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>config: 放置服务器信息
+api：放置接口信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"dealCount":1,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[{"dealCount":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取购物车商品数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v3/od/cart/deal/count</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[{"dealCount":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[{"dealCount":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3205,6 +3836,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3212,35 +3844,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3248,125 +3873,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3375,13 +3887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399884029663991"/>
+        <fgColor theme="4" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3391,194 +3903,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3586,255 +3912,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3865,62 +3949,24 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4178,541 +4224,554 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="145.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="327.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" ht="12" customHeight="1" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C43" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="C44" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -4722,7 +4781,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4739,7 +4798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4756,7 +4815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4774,32 +4833,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://release.thy360.com" tooltip="http://release.thy360.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://172.16.0.21"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="http://release.thy360.com"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" style="9" customWidth="1"/>
     <col min="2" max="2" width="81.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -4807,7 +4868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -4815,7 +4876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -4823,7 +4884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -4831,7 +4892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -4839,7 +4900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -4847,7 +4908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
@@ -4855,7 +4916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
@@ -4863,7 +4924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -4871,7 +4932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
@@ -4879,7 +4940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
@@ -4887,7 +4948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -4895,24 +4956,31 @@
         <v>35</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="255.083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="255.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
@@ -4921,7 +4989,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -4929,7 +4997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -4937,7 +5005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -4945,7 +5013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -4953,7 +5021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -4961,7 +5029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -4969,7 +5037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -4977,7 +5045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
@@ -4985,7 +5053,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -4993,7 +5061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -5001,7 +5069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -5009,7 +5077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -5017,7 +5085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
@@ -5025,7 +5093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
@@ -5033,7 +5101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -5041,7 +5109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>53</v>
       </c>
@@ -5049,7 +5117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -5057,7 +5125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
@@ -5065,7 +5133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -5073,7 +5141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -5081,7 +5149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -5089,7 +5157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -5097,7 +5165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
@@ -5105,7 +5173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
@@ -5113,7 +5181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
@@ -5121,7 +5189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
@@ -5129,7 +5197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
@@ -5137,7 +5205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>65</v>
       </c>
@@ -5145,7 +5213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
@@ -5153,7 +5221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>67</v>
       </c>
@@ -5161,7 +5229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -5169,7 +5237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>69</v>
       </c>
@@ -5177,7 +5245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
@@ -5185,7 +5253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
@@ -5193,7 +5261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
@@ -5201,7 +5269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
@@ -5209,7 +5277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
@@ -5217,7 +5285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
@@ -5225,7 +5293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
@@ -5233,7 +5301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>77</v>
       </c>
@@ -5241,7 +5309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
@@ -5249,7 +5317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
@@ -5257,7 +5325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>80</v>
       </c>
@@ -5265,7 +5333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>81</v>
       </c>
@@ -5273,7 +5341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>82</v>
       </c>
@@ -5281,7 +5349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>84</v>
       </c>
@@ -5289,7 +5357,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>86</v>
       </c>
@@ -5297,7 +5365,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>88</v>
       </c>
@@ -5305,7 +5373,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" spans="1:2">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>90</v>
       </c>
@@ -5313,7 +5381,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>92</v>
       </c>
@@ -5321,7 +5389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>93</v>
       </c>
@@ -5329,7 +5397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>94</v>
       </c>
@@ -5337,7 +5405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>95</v>
       </c>
@@ -5345,7 +5413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>96</v>
       </c>
@@ -5353,7 +5421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>97</v>
       </c>
@@ -5361,7 +5429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>99</v>
       </c>
@@ -5369,7 +5437,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>100</v>
       </c>
@@ -5377,7 +5445,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>101</v>
       </c>
@@ -5385,7 +5453,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>102</v>
       </c>
@@ -5393,7 +5461,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>103</v>
       </c>
@@ -5401,7 +5469,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>104</v>
       </c>
@@ -5409,7 +5477,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>105</v>
       </c>
@@ -5417,7 +5485,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>106</v>
       </c>
@@ -5425,7 +5493,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>108</v>
       </c>
@@ -5433,7 +5501,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>109</v>
       </c>
@@ -5441,7 +5509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>110</v>
       </c>
@@ -5449,7 +5517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>111</v>
       </c>
@@ -5457,7 +5525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>112</v>
       </c>
@@ -5465,7 +5533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>113</v>
       </c>
@@ -5473,7 +5541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>114</v>
       </c>
@@ -5481,7 +5549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>115</v>
       </c>
@@ -5489,7 +5557,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>117</v>
       </c>
@@ -5497,7 +5565,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>118</v>
       </c>
@@ -5505,7 +5573,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>119</v>
       </c>
@@ -5513,7 +5581,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>120</v>
       </c>
@@ -5521,7 +5589,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>121</v>
       </c>
@@ -5529,7 +5597,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>122</v>
       </c>
@@ -5537,7 +5605,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>123</v>
       </c>
@@ -5545,7 +5613,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>124</v>
       </c>
@@ -5553,7 +5621,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>125</v>
       </c>
@@ -5562,21 +5630,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="48.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
@@ -5587,7 +5654,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -5595,7 +5662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -5603,7 +5670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>128</v>
       </c>
@@ -5611,7 +5678,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -5619,7 +5686,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>132</v>
       </c>
@@ -5627,7 +5694,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>134</v>
       </c>
@@ -5636,21 +5703,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="102.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
@@ -5661,7 +5727,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -5669,7 +5735,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
@@ -5677,7 +5743,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
@@ -5685,41 +5751,40 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="108.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.375" style="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
@@ -5727,46 +5792,62 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>140</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -5778,106 +5859,105 @@
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
@@ -5895,71 +5975,71 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -5968,37 +6048,37 @@
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
@@ -6007,39 +6087,39 @@
         <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>7</v>
@@ -6048,39 +6128,39 @@
         <v>6</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
@@ -6089,39 +6169,39 @@
         <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
@@ -6130,39 +6210,39 @@
         <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
@@ -6171,39 +6251,39 @@
         <v>6</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>7</v>
@@ -6212,39 +6292,39 @@
         <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>7</v>
@@ -6253,37 +6333,37 @@
         <v>6</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
@@ -6292,39 +6372,39 @@
         <v>6</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>7</v>
@@ -6333,363 +6413,363 @@
         <v>6</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="I13" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="I15" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="I16" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="I17" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="I18" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>7</v>
@@ -6698,39 +6778,39 @@
         <v>6</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>7</v>
@@ -6739,39 +6819,39 @@
         <v>6</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>7</v>
@@ -6780,39 +6860,39 @@
         <v>6</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>7</v>
@@ -6821,39 +6901,39 @@
         <v>6</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>7</v>
@@ -6862,39 +6942,39 @@
         <v>6</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>7</v>
@@ -6903,39 +6983,39 @@
         <v>6</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>7</v>
@@ -6945,36 +7025,36 @@
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>7</v>
@@ -6983,39 +7063,39 @@
         <v>6</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>7</v>
@@ -7024,39 +7104,39 @@
         <v>6</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>7</v>
@@ -7065,39 +7145,39 @@
         <v>6</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>7</v>
@@ -7106,20 +7186,20 @@
         <v>6</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I14" r:id="rId1" display="137$46&amp;27@6"/>
+    <hyperlink ref="I14" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/api/ExcelForData/testData.xlsx
+++ b/api/ExcelForData/testData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="318">
   <si>
     <t>测试服务器</t>
   </si>
@@ -253,51 +253,6 @@
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":257}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大爷136</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13614672775</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":258}</t>
     </r>
   </si>
   <si>
@@ -3702,11 +3657,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>config: 放置服务器信息
-api：放置接口信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"dealCount":1,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3816,6 +3766,137 @@
       </rPr>
       <t>,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/search/record/delete/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/search/record</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户最近搜索菜谱关键词</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>config: 放置服务器信息
+api：放置接口信息（接口中需要拼接的参数在接口实现中才拼接，excel不需要写出因为拼接的参数是变化获取的）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/search/hotKeywords</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索热词</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/attention/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加或取消菜谱/文章关注{id}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户最近菜谱搜索词{discoverSearchRecordId}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/like/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐菜谱/文章点赞{cookbookArticleId}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/detail/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐菜谱/文章详情{cookbookArticleId}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取关注菜谱/文章列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取精选菜谱/文章列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/list/attentions?limit=10&amp;page=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜谱/文章banner轮播图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/list/banner</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/handpicked/list?limit=10&amp;page=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大爷136</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13614672775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":258}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜谱/文章搜索keyword={}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/search?limit=10&amp;page=1&amp;keyword=</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4235,9 +4316,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4246,7 +4325,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="327.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4272,21 +4351,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -4294,10 +4373,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
@@ -4305,10 +4384,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -4316,10 +4395,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -4327,10 +4406,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -4338,10 +4417,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -4349,10 +4428,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -4360,10 +4439,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -4371,10 +4450,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -4382,10 +4461,10 @@
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -4393,10 +4472,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
@@ -4404,10 +4483,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
@@ -4415,10 +4494,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>39</v>
@@ -4426,10 +4505,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
@@ -4437,10 +4516,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>39</v>
@@ -4448,10 +4527,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>39</v>
@@ -4459,10 +4538,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>39</v>
@@ -4470,10 +4549,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>39</v>
@@ -4481,10 +4560,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>39</v>
@@ -4492,10 +4571,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>39</v>
@@ -4503,10 +4582,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>39</v>
@@ -4514,10 +4593,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>39</v>
@@ -4525,10 +4604,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>39</v>
@@ -4536,10 +4615,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>39</v>
@@ -4547,10 +4626,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>39</v>
@@ -4558,10 +4637,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>39</v>
@@ -4569,10 +4648,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>39</v>
@@ -4580,10 +4659,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>39</v>
@@ -4591,10 +4670,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>39</v>
@@ -4602,10 +4681,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
@@ -4613,10 +4692,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
@@ -4624,10 +4703,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>39</v>
@@ -4635,10 +4714,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>39</v>
@@ -4646,10 +4725,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>39</v>
@@ -4657,10 +4736,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>39</v>
@@ -4668,10 +4747,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>39</v>
@@ -4679,10 +4758,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>39</v>
@@ -4690,10 +4769,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>39</v>
@@ -4701,10 +4780,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>39</v>
@@ -4712,10 +4791,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>39</v>
@@ -4723,10 +4802,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>39</v>
@@ -4734,10 +4813,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>39</v>
@@ -4745,10 +4824,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>39</v>
@@ -4768,7 +4847,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4848,15 +4927,15 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="49.375" style="9" customWidth="1"/>
     <col min="2" max="2" width="81.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4958,10 +5037,90 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4975,7 +5134,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5014,8 +5173,8 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
+      <c r="A4" s="10" t="s">
+        <v>315</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
@@ -5023,7 +5182,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>39</v>
@@ -5031,7 +5190,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>39</v>
@@ -5039,7 +5198,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>39</v>
@@ -5047,7 +5206,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>39</v>
@@ -5055,7 +5214,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>39</v>
@@ -5063,7 +5222,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>39</v>
@@ -5071,7 +5230,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>39</v>
@@ -5079,7 +5238,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>39</v>
@@ -5087,7 +5246,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>39</v>
@@ -5095,7 +5254,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
@@ -5103,7 +5262,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>39</v>
@@ -5111,7 +5270,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>39</v>
@@ -5119,7 +5278,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -5127,7 +5286,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>39</v>
@@ -5135,7 +5294,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>39</v>
@@ -5143,7 +5302,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
@@ -5151,7 +5310,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
@@ -5159,7 +5318,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>39</v>
@@ -5167,7 +5326,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>39</v>
@@ -5175,7 +5334,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>39</v>
@@ -5183,7 +5342,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>39</v>
@@ -5191,7 +5350,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>39</v>
@@ -5199,7 +5358,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>39</v>
@@ -5207,7 +5366,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>39</v>
@@ -5215,7 +5374,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>39</v>
@@ -5223,7 +5382,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>39</v>
@@ -5231,7 +5390,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>39</v>
@@ -5239,7 +5398,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>39</v>
@@ -5247,7 +5406,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>39</v>
@@ -5255,7 +5414,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>39</v>
@@ -5263,7 +5422,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>39</v>
@@ -5271,7 +5430,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
@@ -5279,7 +5438,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>39</v>
@@ -5287,7 +5446,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
@@ -5295,7 +5454,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
@@ -5303,7 +5462,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
@@ -5311,7 +5470,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
@@ -5319,7 +5478,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>39</v>
@@ -5327,7 +5486,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>39</v>
@@ -5335,7 +5494,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>39</v>
@@ -5343,47 +5502,47 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>39</v>
@@ -5391,7 +5550,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>39</v>
@@ -5399,7 +5558,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>39</v>
@@ -5407,7 +5566,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>39</v>
@@ -5415,7 +5574,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>39</v>
@@ -5423,87 +5582,87 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>39</v>
@@ -5511,7 +5670,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>39</v>
@@ -5519,7 +5678,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>39</v>
@@ -5527,7 +5686,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>39</v>
@@ -5535,7 +5694,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>39</v>
@@ -5543,7 +5702,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>39</v>
@@ -5551,82 +5710,82 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5664,7 +5823,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>39</v>
@@ -5672,34 +5831,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5729,7 +5888,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>37</v>
@@ -5737,34 +5896,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5777,7 +5936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5794,7 +5953,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>37</v>
@@ -5802,34 +5961,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5861,13 +6020,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>37</v>
@@ -5875,69 +6034,69 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>39</v>
@@ -5977,69 +6136,69 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -6048,10 +6207,10 @@
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>39</v>
@@ -6059,26 +6218,26 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
@@ -6087,39 +6246,39 @@
         <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>7</v>
@@ -6128,39 +6287,39 @@
         <v>6</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
@@ -6169,39 +6328,39 @@
         <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
@@ -6210,39 +6369,39 @@
         <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
@@ -6251,39 +6410,39 @@
         <v>6</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>7</v>
@@ -6292,10 +6451,10 @@
         <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>39</v>
@@ -6303,28 +6462,28 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>7</v>
@@ -6333,10 +6492,10 @@
         <v>6</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>39</v>
@@ -6344,26 +6503,26 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
@@ -6372,10 +6531,10 @@
         <v>6</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>39</v>
@@ -6383,28 +6542,28 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>7</v>
@@ -6413,10 +6572,10 @@
         <v>6</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>39</v>
@@ -6424,352 +6583,352 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I13" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I15" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I16" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I17" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I18" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M19" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>7</v>
@@ -6778,39 +6937,39 @@
         <v>6</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>7</v>
@@ -6819,10 +6978,10 @@
         <v>6</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>39</v>
@@ -6830,28 +6989,28 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>7</v>
@@ -6860,10 +7019,10 @@
         <v>6</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>39</v>
@@ -6871,28 +7030,28 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>7</v>
@@ -6901,10 +7060,10 @@
         <v>6</v>
       </c>
       <c r="K23" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>39</v>
@@ -6912,28 +7071,28 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>7</v>
@@ -6942,10 +7101,10 @@
         <v>6</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>39</v>
@@ -6953,28 +7112,28 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>7</v>
@@ -6983,10 +7142,10 @@
         <v>6</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>39</v>
@@ -6994,28 +7153,28 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>7</v>
@@ -7025,36 +7184,36 @@
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>7</v>
@@ -7063,39 +7222,39 @@
         <v>6</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>7</v>
@@ -7104,39 +7263,39 @@
         <v>6</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>7</v>
@@ -7145,39 +7304,39 @@
         <v>6</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>7</v>
@@ -7186,13 +7345,13 @@
         <v>6</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/api/ExcelForData/testData.xlsx
+++ b/api/ExcelForData/testData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="6" r:id="rId1"/>
@@ -4846,8 +4846,8 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4929,8 +4929,8 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5133,8 +5133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
